--- a/config_12.01/shoping_config_xiaomi.xlsx
+++ b/config_12.01/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7604,10 +7604,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -8088,6 +8084,10 @@
   </si>
   <si>
     <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,7 +9209,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9289,7 +9291,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9369,7 +9373,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9449,7 +9455,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9529,7 +9537,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,7 +9619,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9689,7 +9701,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9768,6 +9782,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9848,7 +9865,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10850,7 +10869,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10952,10 +10973,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14745,7 +14766,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14801,7 +14822,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14857,7 +14878,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14913,7 +14934,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14969,7 +14990,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16302,7 +16323,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18336,7 +18357,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18392,7 +18413,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27677,7 +27698,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -31176,11 +31197,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31193,13 +31214,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1030</v>
@@ -31209,7 +31230,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31262,7 +31283,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31275,23 +31296,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Q329" s="66" t="s">
         <v>1772</v>
-      </c>
-      <c r="Q329" s="66" t="s">
-        <v>1773</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31344,7 +31365,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31357,23 +31378,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Q330" s="66" t="s">
         <v>1775</v>
-      </c>
-      <c r="Q330" s="66" t="s">
-        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31426,7 +31447,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31439,23 +31460,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31508,7 +31529,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31527,17 +31548,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31590,7 +31611,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31603,23 +31624,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31672,7 +31693,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31685,23 +31706,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31754,7 +31775,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31767,23 +31788,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31836,7 +31857,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31849,23 +31870,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31918,7 +31939,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31931,23 +31952,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39811,7 +39832,7 @@
         <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1686</v>
+        <v>1813</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39852,13 +39873,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H456" s="61" t="s">
         <v>1687</v>
       </c>
-      <c r="H456" s="61" t="s">
+      <c r="I456" s="61" t="s">
         <v>1688</v>
-      </c>
-      <c r="I456" s="61" t="s">
-        <v>1689</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39879,7 +39900,7 @@
         <v>1652</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39920,13 +39941,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H457" s="61" t="s">
         <v>1691</v>
       </c>
-      <c r="H457" s="61" t="s">
+      <c r="I457" s="61" t="s">
         <v>1692</v>
-      </c>
-      <c r="I457" s="61" t="s">
-        <v>1693</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39947,7 +39968,7 @@
         <v>1652</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39985,13 +40006,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H458" s="61" t="s">
         <v>1695</v>
       </c>
-      <c r="H458" s="61" t="s">
+      <c r="I458" s="61" t="s">
         <v>1696</v>
-      </c>
-      <c r="I458" s="61" t="s">
-        <v>1697</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -40012,7 +40033,7 @@
         <v>1652</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -40053,13 +40074,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H459" s="59" t="s">
         <v>1699</v>
       </c>
-      <c r="H459" s="59" t="s">
+      <c r="I459" s="59" t="s">
         <v>1700</v>
-      </c>
-      <c r="I459" s="59" t="s">
-        <v>1701</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -40080,7 +40101,7 @@
         <v>1652</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -40121,13 +40142,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H460" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="H460" s="59" t="s">
+      <c r="I460" s="59" t="s">
         <v>1704</v>
-      </c>
-      <c r="I460" s="59" t="s">
-        <v>1705</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40148,7 +40169,7 @@
         <v>1038</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40186,13 +40207,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H461" s="59" t="s">
         <v>1707</v>
       </c>
-      <c r="H461" s="59" t="s">
+      <c r="I461" s="59" t="s">
         <v>1708</v>
-      </c>
-      <c r="I461" s="59" t="s">
-        <v>1709</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40213,7 +40234,7 @@
         <v>1652</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40254,13 +40275,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H462" s="61" t="s">
         <v>1711</v>
       </c>
-      <c r="H462" s="61" t="s">
+      <c r="I462" s="61" t="s">
         <v>1712</v>
-      </c>
-      <c r="I462" s="61" t="s">
-        <v>1713</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40281,7 +40302,7 @@
         <v>1652</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40322,13 +40343,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H463" s="61" t="s">
         <v>1715</v>
       </c>
-      <c r="H463" s="61" t="s">
+      <c r="I463" s="61" t="s">
         <v>1716</v>
-      </c>
-      <c r="I463" s="61" t="s">
-        <v>1717</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40349,7 +40370,7 @@
         <v>1652</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40387,13 +40408,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H464" s="61" t="s">
         <v>1719</v>
       </c>
-      <c r="H464" s="61" t="s">
+      <c r="I464" s="61" t="s">
         <v>1720</v>
-      </c>
-      <c r="I464" s="61" t="s">
-        <v>1721</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40414,7 +40435,7 @@
         <v>1038</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40455,13 +40476,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H465" s="59" t="s">
         <v>1723</v>
       </c>
-      <c r="H465" s="59" t="s">
+      <c r="I465" s="59" t="s">
         <v>1724</v>
-      </c>
-      <c r="I465" s="59" t="s">
-        <v>1725</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40482,7 +40503,7 @@
         <v>1652</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40523,13 +40544,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H466" s="59" t="s">
         <v>1727</v>
       </c>
-      <c r="H466" s="59" t="s">
+      <c r="I466" s="59" t="s">
         <v>1728</v>
-      </c>
-      <c r="I466" s="59" t="s">
-        <v>1729</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40550,7 +40571,7 @@
         <v>1038</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40588,13 +40609,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H467" s="59" t="s">
         <v>1731</v>
       </c>
-      <c r="H467" s="59" t="s">
+      <c r="I467" s="59" t="s">
         <v>1732</v>
-      </c>
-      <c r="I467" s="59" t="s">
-        <v>1733</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40615,7 +40636,7 @@
         <v>1038</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40656,13 +40677,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H468" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I468" s="63" t="s">
         <v>1737</v>
-      </c>
-      <c r="I468" s="63" t="s">
-        <v>1738</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40683,10 +40704,10 @@
         <v>1652</v>
       </c>
       <c r="Q468" s="64" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V468" s="63" t="s">
         <v>1739</v>
-      </c>
-      <c r="V468" s="63" t="s">
-        <v>1740</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40721,13 +40742,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H469" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I469" s="63" t="s">
         <v>1741</v>
-      </c>
-      <c r="H469" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I469" s="63" t="s">
-        <v>1742</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40748,10 +40769,10 @@
         <v>1652</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40786,13 +40807,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H470" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I470" s="63" t="s">
         <v>1744</v>
-      </c>
-      <c r="H470" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I470" s="63" t="s">
-        <v>1745</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40813,10 +40834,10 @@
         <v>1652</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40851,13 +40872,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H471" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I471" s="63" t="s">
         <v>1747</v>
-      </c>
-      <c r="H471" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I471" s="63" t="s">
-        <v>1748</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40878,10 +40899,10 @@
         <v>1652</v>
       </c>
       <c r="Q471" s="64" t="s">
+        <v>1748</v>
+      </c>
+      <c r="V471" s="63" t="s">
         <v>1749</v>
-      </c>
-      <c r="V471" s="63" t="s">
-        <v>1750</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40916,13 +40937,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H472" s="63" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I472" s="63" t="s">
         <v>1751</v>
-      </c>
-      <c r="H472" s="63" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I472" s="63" t="s">
-        <v>1752</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40943,10 +40964,10 @@
         <v>1652</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40981,13 +41002,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H473" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I473" s="63" t="s">
         <v>1754</v>
-      </c>
-      <c r="H473" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I473" s="63" t="s">
-        <v>1755</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -41008,10 +41029,10 @@
         <v>1652</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -41046,13 +41067,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1757</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1758</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -41073,10 +41094,10 @@
         <v>1652</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -41111,13 +41132,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I475" s="55" t="s">
         <v>1760</v>
-      </c>
-      <c r="H475" s="55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I475" s="55" t="s">
-        <v>1761</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41138,10 +41159,10 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41176,13 +41197,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H476" s="67" t="s">
         <v>1793</v>
       </c>
-      <c r="H476" s="67" t="s">
+      <c r="I476" s="67" t="s">
         <v>1794</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1795</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41200,13 +41221,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q476" s="68" t="s">
         <v>1797</v>
       </c>
-      <c r="Q476" s="68" t="s">
+      <c r="V476" s="67" t="s">
         <v>1798</v>
-      </c>
-      <c r="V476" s="67" t="s">
-        <v>1799</v>
       </c>
       <c r="W476" s="67">
         <v>9999999</v>
@@ -41241,13 +41262,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H477" s="67" t="s">
         <v>1800</v>
       </c>
-      <c r="H477" s="67" t="s">
+      <c r="I477" s="67" t="s">
         <v>1801</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1802</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41259,19 +41280,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O477" s="67">
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q477" s="68" t="s">
+        <v>1803</v>
+      </c>
+      <c r="V477" s="67" t="s">
         <v>1804</v>
-      </c>
-      <c r="V477" s="67" t="s">
-        <v>1805</v>
       </c>
       <c r="W477" s="67">
         <v>9999999</v>
@@ -41306,13 +41327,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H478" s="67" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I478" s="67" t="s">
         <v>1806</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1807</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41324,16 +41345,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O478" s="67">
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
+        <v>1807</v>
+      </c>
+      <c r="Q478" s="68" t="s">
         <v>1808</v>
-      </c>
-      <c r="Q478" s="68" t="s">
-        <v>1809</v>
       </c>
       <c r="V478" s="67" t="s">
         <v>529</v>
@@ -41371,13 +41392,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H479" s="67" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I479" s="67" t="s">
         <v>1810</v>
-      </c>
-      <c r="I479" s="67" t="s">
-        <v>1811</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41389,19 +41410,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O479" s="67">
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
+        <v>1811</v>
+      </c>
+      <c r="Q479" s="68" t="s">
         <v>1812</v>
       </c>
-      <c r="Q479" s="68" t="s">
-        <v>1813</v>
-      </c>
       <c r="V479" s="67" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W479" s="67">
         <v>9999999</v>

--- a/config_12.01/shoping_config_xiaomi.xlsx
+++ b/config_12.01/shoping_config_xiaomi.xlsx
@@ -7875,14 +7875,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8088,6 +8080,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10973,10 +10973,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P437" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31197,11 +31197,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31214,13 +31214,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1030</v>
@@ -31230,7 +31230,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31296,23 +31296,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31365,7 +31365,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31378,23 +31378,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31447,7 +31447,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31460,23 +31460,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31548,17 +31548,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31611,7 +31611,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31624,23 +31624,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31693,7 +31693,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31706,23 +31706,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31775,7 +31775,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31788,23 +31788,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31857,7 +31857,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31870,23 +31870,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31939,7 +31939,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31952,23 +31952,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39832,7 +39832,7 @@
         <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41138,7 +41138,7 @@
         <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1760</v>
+        <v>1812</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41159,7 +41159,7 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1761</v>
+        <v>1813</v>
       </c>
       <c r="V475" s="63" t="s">
         <v>1749</v>
@@ -41197,13 +41197,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1792</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1794</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41221,13 +41221,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V476" s="67" t="s">
         <v>1796</v>
-      </c>
-      <c r="Q476" s="68" t="s">
-        <v>1797</v>
-      </c>
-      <c r="V476" s="67" t="s">
-        <v>1798</v>
       </c>
       <c r="W476" s="67">
         <v>9999999</v>
@@ -41262,13 +41262,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I477" s="67" t="s">
         <v>1799</v>
-      </c>
-      <c r="H477" s="67" t="s">
-        <v>1800</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1801</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41280,19 +41280,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O477" s="67">
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="V477" s="67" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="W477" s="67">
         <v>9999999</v>
@@ -41327,13 +41327,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41345,16 +41345,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O478" s="67">
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="Q478" s="68" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="V478" s="67" t="s">
         <v>529</v>
@@ -41392,13 +41392,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41410,19 +41410,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O479" s="67">
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="V479" s="67" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="W479" s="67">
         <v>9999999</v>
